--- a/Experiment_sheet.xlsx
+++ b/Experiment_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clstl\Documents\GitHub\DS595Project4Mario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c350b6218bd3dc3/Desktop/Code/CS525/DS595CS525-RL-Projects/DS595Project4Mario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E02131A-3D4F-4629-BEF7-CFA8B24637DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{2E02131A-3D4F-4629-BEF7-CFA8B24637DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C032C600-FCC1-4A35-B9EA-A2CD86DD9C3C}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="4050" windowWidth="29040" windowHeight="15990" xr2:uid="{09C52B40-90D1-4D12-98B4-F8C12DD15DCB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09C52B40-90D1-4D12-98B4-F8C12DD15DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="17">
   <si>
     <t>MARIO Experiment Spreadsheet</t>
   </si>
@@ -78,13 +70,19 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>mason</t>
+  </si>
+  <si>
+    <t>20k episodes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,16 +105,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -124,16 +135,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -446,25 +475,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383BD137-5F96-4B8C-A892-CBF642466E3E}">
-  <dimension ref="B2:F28"/>
+  <dimension ref="B1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.41796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3125" customWidth="1"/>
-    <col min="4" max="4" width="11.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -481,7 +515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -492,7 +526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -503,7 +537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -514,7 +548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -524,8 +558,11 @@
       <c r="D8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -536,7 +573,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>3</v>
       </c>
@@ -547,7 +584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -558,7 +595,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>5</v>
       </c>
@@ -568,8 +605,11 @@
       <c r="D12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -580,7 +620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>3</v>
       </c>
@@ -591,7 +631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>4</v>
       </c>
@@ -602,7 +642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>5</v>
       </c>
@@ -612,8 +652,11 @@
       <c r="D16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>2</v>
       </c>
@@ -624,7 +667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -635,7 +678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>4</v>
       </c>
@@ -646,7 +689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>5</v>
       </c>
@@ -656,8 +699,11 @@
       <c r="D20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>2</v>
       </c>
@@ -668,7 +714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>3</v>
       </c>
@@ -679,7 +725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -690,7 +736,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>5</v>
       </c>
@@ -700,8 +746,11 @@
       <c r="D24" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>2</v>
       </c>
@@ -712,7 +761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>3</v>
       </c>
@@ -723,7 +772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>4</v>
       </c>
@@ -734,7 +783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>5</v>
       </c>
@@ -743,6 +792,9 @@
       </c>
       <c r="D28" t="s">
         <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
